--- a/data/long_dif/P23_1-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_1-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29,87%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,02; 48,98</t>
+          <t>15,03; 32,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,84; 42,36</t>
+          <t>23,43; 42,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 26,2</t>
+          <t>10,56; 27,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,75; 32,82</t>
+          <t>12,16; 26,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,94; 34,01</t>
+          <t>23,51; 34,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,79; 34,72</t>
+          <t>20,35; 34,93</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15,71; 26,38</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25,09; 37,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17,36; 29,25</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>46,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>47,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>38,83%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46,28%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,25; 32,48</t>
+          <t>20,75; 39,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,39; 52,53</t>
+          <t>34,0; 50,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,39; 55,17</t>
+          <t>44,99; 71,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,97; 51,87</t>
+          <t>37,38; 54,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,49; 42,67</t>
+          <t>40,54; 53,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,97; 50,29</t>
+          <t>30,81; 47,97</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32,48; 45,67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39,95; 50,98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39,23; 55,67</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>34,24%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>40,45%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30,54%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,21; 54,12</t>
+          <t>35,16; 62,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 33,16</t>
+          <t>19,51; 31,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,63; 41,89</t>
+          <t>15,61; 34,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,37; 38,12</t>
+          <t>28,42; 45,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,81; 44,32</t>
+          <t>18,66; 29,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,91; 32,54</t>
+          <t>26,48; 43,39</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33,85; 48,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 28,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 36,66</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,17; 31,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,93; 28,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,95; 23,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,87; 31,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 26,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,06; 28,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,79%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,08%</t>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,03; 50,08</t>
+          <t>19,01; 29,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,38; 57,35</t>
+          <t>20,41; 29,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,08; 52,83</t>
+          <t>23,14; 37,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,28; 50,1</t>
+          <t>15,38; 25,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,14; 49,74</t>
+          <t>23,87; 31,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,7; 52,56</t>
+          <t>22,27; 32,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 25,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23,11; 29,27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24,28; 32,57</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>46,53%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48,8%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46,75%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,13; 34,27</t>
+          <t>37,2; 51,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,72; 27,96</t>
+          <t>47,03; 57,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,17; 36,84</t>
+          <t>39,8; 54,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,24; 31,06</t>
+          <t>42,11; 53,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,5; 34,36</t>
+          <t>41,65; 50,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,04; 27,84</t>
+          <t>40,34; 52,07</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41,85; 50,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45,43; 52,53</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>42,4; 50,85</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>26,55%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32,36%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25,39%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,45; 28,72</t>
+          <t>25,91; 39,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,73; 37,17</t>
+          <t>19,29; 27,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,9; 24,6</t>
+          <t>18,91; 30,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,77; 31,18</t>
+          <t>28,22; 37,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,88</t>
+          <t>23,18; 31,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,16; 32,65</t>
+          <t>21,84; 31,92</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28,72; 36,86</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22,25; 27,92</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21,8; 29,4</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>37,6; 50,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,65; 51,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,16; 51,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,2; 50,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40,84; 49,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,17; 49,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>31,16%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>19,32%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,25; 40,09</t>
+          <t>14,43; 26,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,04; 27,47</t>
+          <t>26,68; 37,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,89; 38,8</t>
+          <t>21,3; 33,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,93; 31,25</t>
+          <t>14,77; 23,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,18; 38,09</t>
+          <t>22,94; 31,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>21,8; 27,98</t>
+          <t>26,41; 36,53</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 23,46</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26,08; 32,65</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>25,61; 33,05</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>49,97%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>45,29%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>46,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>47,45%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,54</t>
+          <t>37,56; 51,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,64; 31,62</t>
+          <t>40,25; 51,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,97; 22,64</t>
+          <t>38,42; 52,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,71; 29,74</t>
+          <t>40,04; 51,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,69; 25,53</t>
+          <t>41,55; 50,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,56; 29,84</t>
+          <t>44,62; 55,75</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>40,66; 49,7</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>42,38; 49,66</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>43,29; 52,54</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>45,81%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>18,87%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>35,39%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,74; 44,69</t>
+          <t>29,3; 42,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>44,75; 52,09</t>
+          <t>17,95; 26,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>43,44; 50,35</t>
+          <t>22,2; 34,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>42,9; 48,78</t>
+          <t>29,26; 40,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>41,3; 46,68</t>
+          <t>23,09; 31,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,85; 49,76</t>
+          <t>14,92; 23,12</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>31,35; 40,1</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 27,92</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>19,34; 26,82</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,27; 37,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>20,77; 26,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,41; 36,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,15; 30,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,59; 35,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,47; 27,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>35,64%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>23,65%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>30,06%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>27,14; 46,58</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 30,89</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>24,21; 37,22</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>35,97%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>44,73%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>40,04%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>27,97; 44,36</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>37,43; 52,96</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>33,85; 45,88</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>31,62%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>29,9%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 35,8</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>23,66; 39,03</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>24,84; 35,27</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>22,31%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>21,59; 28,8</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>25,18; 31,96</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>22,43; 31,38</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 22,84</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>25,12; 30,32</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>25,48; 31,91</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>20,26; 24,69</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>26,06; 30,43</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>24,81; 30,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>40,74%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>48,25%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>47,92%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>46,62%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>46,19%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>45,91%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>43,74%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>47,2%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>46,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>36,61; 44,66</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>44,57; 51,93</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>43,34; 53,02</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>42,93; 50,2</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>43,33; 48,96</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>42,33; 49,51</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>41,2; 46,25</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>45,04; 49,54</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>43,92; 50,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>34,33%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>33,58%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>25,7%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>33,95%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>24,86%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>30,66; 38,85</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>20,8; 26,35</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>22,0; 29,58</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>30,55; 36,87</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 28,77</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 29,18</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>31,67; 36,65</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>23,01; 26,79</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>23,3; 28,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
